--- a/plots/basic_stats/single_var_stats/allmus_summary_var-governance_simpl.xlsx
+++ b/plots/basic_stats/single_var_stats/allmus_summary_var-governance_simpl.xlsx
@@ -386,10 +386,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>2808</v>
+        <v>2992</v>
       </c>
       <c r="C2">
-        <v>69.98999999999999</v>
+        <v>70.75</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -404,10 +404,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>992</v>
+        <v>1017</v>
       </c>
       <c r="C3">
-        <v>24.73</v>
+        <v>24.05</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -422,10 +422,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -440,10 +440,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C5">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
